--- a/DATA/GoogleDriveIndicatorMetroFolderID.xlsx
+++ b/DATA/GoogleDriveIndicatorMetroFolderID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livereadingac-my.sharepoint.com/personal/at830828_student_reading_ac_uk/Documents/PERSONAL_READING/WORK/WORLD BANK/CODE/STREAMLIT/UPLOADING/_CURRENTLY_DEPLOYED/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{2F9A0436-F4C8-4F16-A575-E4E979810ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFF25916-4CA2-40A2-A7C0-0313ACF50DE0}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{2F9A0436-F4C8-4F16-A575-E4E979810ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF7050C-29C5-490D-A18E-0A2876FC7CC4}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{C0656294-95F2-470B-A78D-8DFED5931F16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Indicator</t>
   </si>
@@ -80,28 +80,79 @@
     <t>Tshwane</t>
   </si>
   <si>
-    <t>1-3PmmvzNs5UJyxN-dtXQy2OsX9UHRlnd</t>
-  </si>
-  <si>
-    <t>1-L3R9TQA6dzR0ROqI9xzOtDeBe64jBHq</t>
-  </si>
-  <si>
-    <t>1Zx0RMYy-gcX1s8K4hvN0XpaSI35H_wHu</t>
-  </si>
-  <si>
-    <t>1OzjlLrOAkzGV9JbQgwjm0gN4jCNN8wrE</t>
-  </si>
-  <si>
-    <t>1-cKduEdlNwuDvgXRmMWcZDrrQZa1A9dL</t>
-  </si>
-  <si>
-    <t>1p--SsrJWWxyNVH1jVT_p8D1xomJngkTF</t>
-  </si>
-  <si>
     <t>WhoHasAccessArray</t>
   </si>
   <si>
-    <t>1IUGCdzkUuSYcL15XnqGFZrddnKFjklpL</t>
+    <t>1u9ADBRckg4thM9HLXFZQ2SOz2ZO1thWK</t>
+  </si>
+  <si>
+    <t>1oyFRf90eC-nDQfIqPV_BG_nGuTIo7qlH</t>
+  </si>
+  <si>
+    <t>1X1JRgveCQ507sgR7U8Vken-cGX-Sv30s</t>
+  </si>
+  <si>
+    <t>1fJCTjjOS69iWB_U0pCqxG66Atu6C_bue</t>
+  </si>
+  <si>
+    <t>1Xkv_V0Pbc3DlhYP_35zzygGsOauDZVWD</t>
+  </si>
+  <si>
+    <t>1C2H6FHwvkOgDy1Q2YavW0LSUXi15euRP</t>
+  </si>
+  <si>
+    <t>1iYpeqiSbydj4I1lzYaiuZ6dYk6RGtqbr</t>
+  </si>
+  <si>
+    <t>1yz6c0XbhGNkmStm3YGqrxuLb59uupm26</t>
+  </si>
+  <si>
+    <t>1tNBAS361kPQrpnaVOvnu60QjG_AyENho</t>
+  </si>
+  <si>
+    <t>1FuDmpAccQyOrDToV0Eo1771JuW_Ovp2-</t>
+  </si>
+  <si>
+    <t>1ZqprzzagswbxAqCkAs6R6YCM43GgE8wt</t>
+  </si>
+  <si>
+    <t>1N4VxaCnXz3vHdHXtreWIbJobaohat5xL</t>
+  </si>
+  <si>
+    <t>15v7rxQybr8NNnyDf4rVq4QQW4fTU_KYz</t>
+  </si>
+  <si>
+    <t>1fUmB9ai8JtCP2DYqjISGR6TcIvHHwQ0g</t>
+  </si>
+  <si>
+    <t>1InNn45yyXrinDV_KvlaPqF3Xl_GRvcPk</t>
+  </si>
+  <si>
+    <t>1rrZbHkaJ8ERIprZd0hw6gqcw_VWAQeC9</t>
+  </si>
+  <si>
+    <t>1S_WOLAvNYcLJm5iDGChFk9Abmtf25ag5</t>
+  </si>
+  <si>
+    <t>1O6_m9LCEsB61rjDwFmsfaqVRtw10thzu</t>
+  </si>
+  <si>
+    <t>1nFlj06ey-MMzZITUcJjw5EZhk1_YsFC_</t>
+  </si>
+  <si>
+    <t>1l97xlAgKuV76GIWVn5xarWbvP6nLkJfy</t>
+  </si>
+  <si>
+    <t>1fe0rO3gmXQHCipqSgA65q0YK_KXoEXz4</t>
+  </si>
+  <si>
+    <t>1C5grehiUyd_xOY4w0vj3sXuEncOLnB3D</t>
+  </si>
+  <si>
+    <t>1q9KeS9x0gfsqWhm0u-Bp2yRqySo3N19I</t>
+  </si>
+  <si>
+    <t>1Kl8x3bLM6igZYjZCvLjFwfG9EFcGC5lr</t>
   </si>
 </sst>
 </file>
@@ -479,7 +530,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -500,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -510,6 +561,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
@@ -519,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -529,6 +583,9 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
@@ -538,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -548,6 +605,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
@@ -556,6 +616,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
@@ -564,6 +627,9 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
@@ -573,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -583,6 +649,9 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -591,6 +660,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -600,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -610,6 +682,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -618,6 +693,9 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -626,6 +704,9 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -634,6 +715,9 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
@@ -643,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -653,6 +737,9 @@
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
@@ -661,6 +748,9 @@
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
@@ -669,6 +759,9 @@
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
@@ -678,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -689,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -699,6 +792,9 @@
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
@@ -707,6 +803,9 @@
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
@@ -714,6 +813,9 @@
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
